--- a/propulsion.xlsx
+++ b/propulsion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595FCD59-F9F3-475D-9B24-82C06594DE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77119D56-5EC2-4ABA-86A0-D3CDE73173A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>pitch (m)</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>airspeed</t>
+  </si>
+  <si>
+    <t>motor properties</t>
+  </si>
+  <si>
+    <t>kv</t>
+  </si>
+  <si>
+    <t>max voltage</t>
+  </si>
+  <si>
+    <t>max current</t>
   </si>
 </sst>
 </file>
@@ -1496,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,11 +1557,11 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>60*E2/(C2*D2)</f>
-        <v>2186.4253946905906</v>
+        <v>3141.6301141660683</v>
       </c>
       <c r="B2">
         <f>A2*J2</f>
-        <v>10932.126973452952</v>
+        <v>9424.8903424982054</v>
       </c>
       <c r="C2">
         <v>0.6</v>
@@ -1559,24 +1571,24 @@
       </c>
       <c r="E2">
         <f>(H2 + 14.448)/6.5431</f>
-        <v>17.491403157524722</v>
+        <v>25.133040913328546</v>
       </c>
       <c r="F2">
         <f>B2/I2</f>
-        <v>23.259844624367982</v>
+        <v>20.052958175528097</v>
       </c>
       <c r="G2">
         <f>H2/F2</f>
-        <v>4.2992548581014951</v>
+        <v>7.4801931309593295</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I2">
         <v>470</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <v>8.3000000000000007</v>
@@ -1631,6 +1643,35 @@
       </c>
       <c r="Q8">
         <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1040</v>
+      </c>
+      <c r="C28">
+        <f>B2/B28</f>
+        <v>9.0623945600944289</v>
+      </c>
+      <c r="D28">
+        <f>H2/C28</f>
+        <v>16.55191671531426</v>
       </c>
     </row>
   </sheetData>

--- a/propulsion.xlsx
+++ b/propulsion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77119D56-5EC2-4ABA-86A0-D3CDE73173A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A296DF2-516E-4D17-8772-BC815BCC6B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B2">
         <f>A2*J2</f>
-        <v>9424.8903424982054</v>
+        <v>15708.150570830341</v>
       </c>
       <c r="C2">
         <v>0.6</v>
@@ -1575,11 +1575,11 @@
       </c>
       <c r="F2">
         <f>B2/I2</f>
-        <v>20.052958175528097</v>
+        <v>33.421596959213495</v>
       </c>
       <c r="G2">
         <f>H2/F2</f>
-        <v>7.4801931309593295</v>
+        <v>4.4881158785755977</v>
       </c>
       <c r="H2">
         <v>150</v>
@@ -1588,7 +1588,7 @@
         <v>470</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2">
         <v>8.3000000000000007</v>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="C28">
         <f>B2/B28</f>
-        <v>9.0623945600944289</v>
+        <v>15.103990933490712</v>
       </c>
       <c r="D28">
         <f>H2/C28</f>
-        <v>16.55191671531426</v>
+        <v>9.9311500291885579</v>
       </c>
     </row>
   </sheetData>

--- a/propulsion.xlsx
+++ b/propulsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A296DF2-516E-4D17-8772-BC815BCC6B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F4530-B831-4228-B40B-16AB756F3629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,15 +1663,15 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28">
-        <v>1040</v>
+        <v>1500</v>
       </c>
       <c r="C28">
         <f>B2/B28</f>
-        <v>15.103990933490712</v>
+        <v>10.472100380553561</v>
       </c>
       <c r="D28">
         <f>H2/C28</f>
-        <v>9.9311500291885579</v>
+        <v>14.323774080560419</v>
       </c>
     </row>
   </sheetData>

--- a/propulsion.xlsx
+++ b/propulsion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdinand Hubbard\Desktop\solarplane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6F4530-B831-4228-B40B-16AB756F3629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B90DB6-A479-46AA-806E-2AC98302821E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11472" yWindow="2172" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,11 +1557,11 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>60*E2/(C2*D2)</f>
-        <v>3141.6301141660683</v>
+        <v>3714.752945851355</v>
       </c>
       <c r="B2">
         <f>A2*J2</f>
-        <v>15708.150570830341</v>
+        <v>18573.764729256774</v>
       </c>
       <c r="C2">
         <v>0.6</v>
@@ -1571,18 +1571,18 @@
       </c>
       <c r="E2">
         <f>(H2 + 14.448)/6.5431</f>
-        <v>25.133040913328546</v>
+        <v>29.718023566810839</v>
       </c>
       <c r="F2">
         <f>B2/I2</f>
-        <v>33.421596959213495</v>
+        <v>39.5186483601208</v>
       </c>
       <c r="G2">
         <f>H2/F2</f>
-        <v>4.4881158785755977</v>
+        <v>4.5548116514440879</v>
       </c>
       <c r="H2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I2">
         <v>470</v>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="C28">
         <f>B2/B28</f>
-        <v>10.472100380553561</v>
+        <v>12.382509819504516</v>
       </c>
       <c r="D28">
         <f>H2/C28</f>
-        <v>14.323774080560419</v>
+        <v>14.536632930140705</v>
       </c>
     </row>
   </sheetData>
